--- a/cases/NorthSea_v2/Nodes/Nodes.xlsx
+++ b/cases/NorthSea_v2/Nodes/Nodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea_v2\Nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B269CB02-A04A-4385-9A4B-7C48607EA5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DCFCE8-1AC7-4168-940C-D112FBFDF2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{FC20BF45-2CFA-42DB-8304-0276C20725B2}"/>
   </bookViews>
@@ -1358,7 +1358,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/cases/NorthSea_v2/Nodes/Nodes.xlsx
+++ b/cases/NorthSea_v2/Nodes/Nodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea_v2\Nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DCFCE8-1AC7-4168-940C-D112FBFDF2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB68F7C1-119C-4FF8-AE2D-1B69FE70D95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{FC20BF45-2CFA-42DB-8304-0276C20725B2}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="4" xr2:uid="{FC20BF45-2CFA-42DB-8304-0276C20725B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Carriers" sheetId="15" r:id="rId1"/>
@@ -1358,7 +1358,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
